--- a/docs/tables.xlsx
+++ b/docs/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\IART\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DADF93B-63E6-462B-9FB1-FEF2B12F1C51}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA21AFC-8A46-4154-9565-6C6ED7382D7A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{72135181-039D-4592-BA53-3617C10FF970}"/>
   </bookViews>
@@ -401,7 +401,7 @@
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,6 +433,12 @@
       <c r="C3">
         <v>123</v>
       </c>
+      <c r="D3">
+        <v>112</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -441,6 +447,12 @@
       <c r="C4">
         <v>245</v>
       </c>
+      <c r="D4">
+        <v>223</v>
+      </c>
+      <c r="E4">
+        <v>119</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -449,6 +461,12 @@
       <c r="C5">
         <v>14</v>
       </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -457,6 +475,12 @@
       <c r="C6">
         <v>99.2774</v>
       </c>
+      <c r="D6">
+        <v>99.055000000000007</v>
+      </c>
+      <c r="E6">
+        <v>97.442999999999998</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -479,6 +503,12 @@
       <c r="C10">
         <v>123</v>
       </c>
+      <c r="D10">
+        <v>112</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -487,6 +517,12 @@
       <c r="C11">
         <v>245</v>
       </c>
+      <c r="D11">
+        <v>223</v>
+      </c>
+      <c r="E11">
+        <v>119</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -495,6 +531,12 @@
       <c r="C12">
         <v>14</v>
       </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -503,6 +545,12 @@
       <c r="C13">
         <v>99.110600000000005</v>
       </c>
+      <c r="D13">
+        <v>99.110600000000005</v>
+      </c>
+      <c r="E13">
+        <v>97.3874</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
@@ -518,36 +566,60 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17">
         <v>123</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>112</v>
+      </c>
+      <c r="E17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18">
         <v>245</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>223</v>
+      </c>
+      <c r="E18">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>2</v>
       </c>
       <c r="C19">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20">
         <v>99.375</v>
+      </c>
+      <c r="D20">
+        <v>99.5</v>
+      </c>
+      <c r="E20">
+        <v>98.125</v>
       </c>
     </row>
   </sheetData>
